--- a/field_lab_data/minirhizotron/rhizotron_metadata.xlsx
+++ b/field_lab_data/minirhizotron/rhizotron_metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625BD4D3-57A7-496E-BC44-DF75BF88AE17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E7AECA-5C09-4D4B-BD00-3449AABA0214}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>plot</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>session1_2</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>bahia</t>
+  </si>
+  <si>
+    <t>mixed</t>
   </si>
 </sst>
 </file>
@@ -425,441 +437,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>45</v>
       </c>
-      <c r="E17" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>22</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>44</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1">
         <v>43616</v>
       </c>
     </row>
